--- a/data/trans_orig/IP16B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF3DCE4-B937-4CAE-B7E6-E5F6A7C7C598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AADF02-C741-4CF0-B887-ADF3AE44372C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD91EB5C-5421-479A-995D-AE63E1C8F9F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{164548E0-F480-42FB-8903-6AC6207AED42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="193">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -127,13 +127,13 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>98,56%</t>
@@ -142,13 +142,13 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>97,89%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -160,13 +160,13 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>14,22%</t>
+    <t>12,85%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>6,32%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -175,13 +175,13 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>85,78%</t>
+    <t>87,15%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>93,75%</t>
+    <t>93,68%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -190,13 +190,13 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -205,13 +205,13 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>95,61%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,36%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -223,406 +223,400 @@
     <t>87,9%</t>
   </si>
   <si>
-    <t>61,18%</t>
+    <t>64,05%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>83,41%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>38,82%</t>
+    <t>35,95%</t>
   </si>
   <si>
     <t>20,31%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>79,19%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>63,25%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>91,96%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>20,81%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>36,75%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>8,04%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2015 (Tasa respuesta: 10,07%)</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>54,64%</t>
+    <t>52,54%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>52,91%</t>
+    <t>55,06%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>65,19%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>45,36%</t>
+    <t>47,46%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>47,09%</t>
+    <t>44,94%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>34,81%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>69,28%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E670F1-3427-4F4B-9B43-43795D1EF68C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A62E02-B8B8-4828-A892-A0BA182B5B82}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,7 +1929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB6C84F-2D9F-4E5D-91E4-57D0A3FB8960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC63DCE1-D157-4A27-B579-2E69CC1B1525}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,7 +2521,7 @@
         <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -2536,10 +2530,10 @@
         <v>43750</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>101</v>
@@ -2575,10 +2569,10 @@
         <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2587,13 +2581,13 @@
         <v>7717</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2685,13 @@
         <v>173326</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2706,13 @@
         <v>6494</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2727,13 +2721,13 @@
         <v>17333</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2742,13 +2736,13 @@
         <v>23827</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9810E871-A08D-458D-8DCB-DEE0517F8BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD961134-42D2-4DC9-A204-5F57C669A5F8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3085,10 +3079,10 @@
         <v>5726</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -3100,10 +3094,10 @@
         <v>7822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -3115,13 +3109,13 @@
         <v>13548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3130,13 @@
         <v>713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3151,13 +3145,13 @@
         <v>1584</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3166,13 +3160,13 @@
         <v>2296</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3234,13 @@
         <v>41308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3255,13 +3249,13 @@
         <v>38924</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -3270,13 +3264,13 @@
         <v>80233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3285,13 @@
         <v>5047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3306,13 +3300,13 @@
         <v>10311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -3321,13 +3315,13 @@
         <v>15358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3389,13 @@
         <v>11946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3410,13 +3404,13 @@
         <v>15671</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3425,13 +3419,13 @@
         <v>27617</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3440,13 @@
         <v>2043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3461,13 +3455,13 @@
         <v>2082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3476,13 +3470,13 @@
         <v>4125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3544,13 @@
         <v>58981</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -3565,13 +3559,13 @@
         <v>62418</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
@@ -3580,13 +3574,13 @@
         <v>121399</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3595,13 @@
         <v>7803</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -3616,13 +3610,13 @@
         <v>13976</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3631,13 +3625,13 @@
         <v>21779</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AADF02-C741-4CF0-B887-ADF3AE44372C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39E1261-26D1-458D-8B56-71A3DB53D6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{164548E0-F480-42FB-8903-6AC6207AED42}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{9FD28126-565B-48FE-B706-5A3FBAAE2CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="193">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,127 +94,112 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>97,01%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,89%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>93,68%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -220,403 +208,415 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2012 (Tasa respuesta: 13,24%)</t>
   </si>
   <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>65,39%</t>
   </si>
   <si>
     <t>83,41%</t>
   </si>
   <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>34,61%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>85,01%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. recetados por el médico en 2016 (Tasa respuesta: 10,07%)</t>
   </si>
   <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>65,19%</t>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>34,81%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>19,82%</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A62E02-B8B8-4828-A892-A0BA182B5B82}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4095CAE-B694-4245-BFF3-092B0AC8ADD3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1163,12 +1163,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1186,56 +1188,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20258</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,70 +1248,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1322,73 +1328,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>121</v>
+      </c>
+      <c r="D8" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>132</v>
+      </c>
+      <c r="I8" s="7">
+        <v>87669</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7">
-        <v>20258</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="7">
-        <v>33</v>
-      </c>
-      <c r="I8" s="7">
-        <v>22048</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="N8" s="7">
-        <v>42305</v>
+        <v>167669</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,153 +1403,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>642</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>707</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>707</v>
+        <v>642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>87669</v>
+        <v>21909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>80000</v>
+        <v>35266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="N11" s="7">
-        <v>167669</v>
+        <v>57174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,153 +1558,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1349</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>642</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>642</v>
+        <v>1349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>188</v>
+      </c>
+      <c r="D14" s="7">
+        <v>123956</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>214</v>
+      </c>
+      <c r="I14" s="7">
+        <v>143193</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>402</v>
+      </c>
+      <c r="N14" s="7">
+        <v>267149</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="7">
-        <v>35266</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="7">
-        <v>34</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21909</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
-        <v>86</v>
-      </c>
-      <c r="N14" s="7">
-        <v>57174</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,216 +1713,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1349</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1349</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>215</v>
-      </c>
-      <c r="D17" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>123956</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>403</v>
-      </c>
-      <c r="N17" s="7">
-        <v>267875</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1929,8 +1779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC63DCE1-D157-4A27-B579-2E69CC1B1525}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999ADA6-F28F-4076-9A05-58F88DB12903}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1946,7 +1796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2047,88 +1897,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10850</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9939</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20789</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2765</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1369</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4134</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,147 +1999,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13615</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11308</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24923</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>9939</v>
+        <v>50201</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I7" s="7">
-        <v>10850</v>
+        <v>58588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="N7" s="7">
-        <v>20789</v>
+        <v>108789</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>1369</v>
+        <v>9358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2765</v>
+        <v>2617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>4134</v>
+        <v>11975</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,153 +2154,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>11308</v>
+        <v>59559</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>13615</v>
+        <v>61205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="N9" s="7">
-        <v>24923</v>
+        <v>120764</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>58588</v>
+        <v>19822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>50201</v>
+        <v>23927</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>108789</v>
+        <v>43750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2617</v>
+        <v>5210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>9358</v>
+        <v>2508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>11975</v>
+        <v>7717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,153 +2309,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>61205</v>
+        <v>25032</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>59559</v>
+        <v>26435</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="N12" s="7">
-        <v>120764</v>
+        <v>51467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="D13" s="7">
-        <v>23927</v>
+        <v>80874</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>19822</v>
+        <v>92453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="N13" s="7">
-        <v>43750</v>
+        <v>173326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>2508</v>
+        <v>17333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>5210</v>
+        <v>6494</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>7717</v>
+        <v>23827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,216 +2464,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7">
-        <v>26435</v>
+        <v>98207</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>25032</v>
+        <v>98947</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="N15" s="7">
-        <v>51467</v>
+        <v>197153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>129</v>
-      </c>
-      <c r="D16" s="7">
-        <v>92453</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="7">
-        <v>115</v>
-      </c>
-      <c r="I16" s="7">
-        <v>80874</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="7">
-        <v>244</v>
-      </c>
-      <c r="N16" s="7">
-        <v>173326</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7">
-        <v>6494</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17333</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23827</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>138</v>
-      </c>
-      <c r="D18" s="7">
-        <v>98947</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>140</v>
-      </c>
-      <c r="I18" s="7">
-        <v>98207</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>278</v>
-      </c>
-      <c r="N18" s="7">
-        <v>197153</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
+      <c r="A16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD961134-42D2-4DC9-A204-5F57C669A5F8}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29531551-E602-444D-AC1E-A59802FF1DAD}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2936,88 +2648,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7822</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5726</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13548</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1584</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>713</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2296</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,147 +2750,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9406</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6439</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15844</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>5726</v>
+        <v>38924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>7822</v>
+        <v>41308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>13548</v>
+        <v>80233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
       <c r="D8" s="7">
-        <v>713</v>
+        <v>10311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>1584</v>
+        <v>5047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>2296</v>
+        <v>15358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,153 +2905,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>6439</v>
+        <v>49235</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I9" s="7">
-        <v>9406</v>
+        <v>46355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="N9" s="7">
-        <v>15844</v>
+        <v>95591</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>41308</v>
+        <v>15671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>38924</v>
+        <v>11946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>80233</v>
+        <v>27617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>5047</v>
+        <v>2082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>10311</v>
+        <v>2043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>15358</v>
+        <v>4125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,153 +3060,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>46355</v>
+        <v>17753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>49235</v>
+        <v>13989</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>95591</v>
+        <v>31742</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>11946</v>
+        <v>62418</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7">
-        <v>15671</v>
+        <v>58981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="N13" s="7">
-        <v>27617</v>
+        <v>121399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>2043</v>
+        <v>13976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>2082</v>
+        <v>7803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>4125</v>
+        <v>21779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,216 +3215,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7">
-        <v>13989</v>
+        <v>76394</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>17753</v>
+        <v>66784</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="N15" s="7">
-        <v>31742</v>
+        <v>143178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>87</v>
-      </c>
-      <c r="D16" s="7">
-        <v>58981</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="7">
-        <v>96</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62418</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="7">
-        <v>183</v>
-      </c>
-      <c r="N16" s="7">
-        <v>121399</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7">
-        <v>7803</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13976</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M17" s="7">
-        <v>31</v>
-      </c>
-      <c r="N17" s="7">
-        <v>21779</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>98</v>
-      </c>
-      <c r="D18" s="7">
-        <v>66784</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>116</v>
-      </c>
-      <c r="I18" s="7">
-        <v>76394</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>214</v>
-      </c>
-      <c r="N18" s="7">
-        <v>143178</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
+      <c r="A16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
